--- a/out/production/TankGame/map.xlsx
+++ b/out/production/TankGame/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lllllan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60769AAE-1EE5-4AB7-80A8-52A8092CB281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC656DE-DE22-4996-82A9-117C7AFB82C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3015" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>4,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,211 @@
   </si>
   <si>
     <t>13,13</t>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9</t>
+  </si>
+  <si>
+    <t>11,9</t>
+  </si>
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>11,10</t>
+  </si>
+  <si>
+    <t>12,10</t>
+  </si>
+  <si>
+    <t>9,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,6</t>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>13,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,6</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>13,8</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>8,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -283,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -348,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,6 +574,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -962,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDD7D8B-49C9-48A0-80AF-8BD677499181}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -995,54 +1207,255 @@
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
+      <c r="K5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
+      <c r="J6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
+      <c r="I7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
+      <c r="J10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
+      <c r="K11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,6 +1486,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/out/production/TankGame/map.xlsx
+++ b/out/production/TankGame/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lllllan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\information\programme\tank\out\production\TankGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC656DE-DE22-4996-82A9-117C7AFB82C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A0593B-08C8-4905-9FE3-0095102F170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3015" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="190">
   <si>
     <t>4,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,250 @@
   </si>
   <si>
     <t>21,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>7,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>7,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,5</t>
+  </si>
+  <si>
+    <t>16,6</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>16,8</t>
+  </si>
+  <si>
+    <t>16,9</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>17,8</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>8,11</t>
+  </si>
+  <si>
+    <t>14,10</t>
+  </si>
+  <si>
+    <t>14,11</t>
+  </si>
+  <si>
+    <t>9,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,9 +1105,9 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -888,11 +1132,11 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="E3" s="9" t="s">
         <v>0</v>
@@ -914,7 +1158,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -948,7 +1192,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -991,7 +1235,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>34</v>
@@ -1004,7 +1248,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="G7" s="4" t="s">
         <v>24</v>
@@ -1029,7 +1273,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -1054,7 +1298,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="K9" s="5" t="s">
         <v>41</v>
@@ -1067,11 +1311,11 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="E11" s="3" t="s">
         <v>42</v>
@@ -1081,7 +1325,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="J12" s="4" t="s">
         <v>44</v>
@@ -1100,7 +1344,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="J13" s="4" t="s">
         <v>45</v>
@@ -1119,7 +1363,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="J14" s="4" t="s">
         <v>46</v>
@@ -1138,7 +1382,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1174,13 +1418,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDD7D8B-49C9-48A0-80AF-8BD677499181}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1205,7 +1449,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="5" t="s">
         <v>65</v>
@@ -1215,7 +1459,7 @@
       </c>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>66</v>
@@ -1237,7 +1481,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -1256,7 +1500,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="K5" s="4" t="s">
         <v>78</v>
@@ -1269,7 +1513,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="J6" s="10" t="s">
         <v>87</v>
@@ -1288,7 +1532,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="I7" s="4" t="s">
         <v>97</v>
@@ -1313,7 +1557,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>103</v>
@@ -1344,7 +1588,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="I9" s="4" t="s">
         <v>101</v>
@@ -1369,7 +1613,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="J10" s="10" t="s">
         <v>91</v>
@@ -1388,7 +1632,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="K11" s="4" t="s">
         <v>84</v>
@@ -1401,7 +1645,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="5" t="s">
         <v>106</v>
@@ -1420,7 +1664,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
         <v>108</v>
@@ -1442,7 +1686,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>111</v>
@@ -1458,7 +1702,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1494,13 +1738,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1309B842-9601-4944-9539-D7B32329D91C}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1525,59 +1769,326 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
+      <c r="F6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
+      <c r="E10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="I11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="J13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1605,6 +2116,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1616,9 +2128,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1643,59 +2155,59 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1734,9 +2246,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1761,59 +2273,59 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1852,9 +2364,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1879,59 +2391,59 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1970,9 +2482,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1997,59 +2509,59 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2088,9 +2600,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2115,59 +2627,59 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
